--- a/prjplanning/Iteration1.xlsx
+++ b/prjplanning/Iteration1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Iterationsplan" sheetId="4" r:id="rId1"/>
@@ -613,12 +613,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -638,6 +632,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,43 +834,43 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,11 +949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102095488"/>
-        <c:axId val="102576512"/>
+        <c:axId val="93349376"/>
+        <c:axId val="93350912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="102095488"/>
+        <c:axId val="93349376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +973,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102576512"/>
+        <c:crossAx val="93350912"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="0"/>
@@ -984,7 +984,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102576512"/>
+        <c:axId val="93350912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1016,7 +1016,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102095488"/>
+        <c:crossAx val="93349376"/>
         <c:crossesAt val="41221"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1134,12 +1134,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28375</cdr:x>
-      <cdr:y>0.21257</cdr:y>
+      <cdr:x>0.5693</cdr:x>
+      <cdr:y>0.20093</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.48371</cdr:x>
-      <cdr:y>0.26193</cdr:y>
+      <cdr:x>0.76926</cdr:x>
+      <cdr:y>0.25029</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1148,8 +1148,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2772682" y="1432078"/>
-          <a:ext cx="1953920" cy="332546"/>
+          <a:off x="5562935" y="1353638"/>
+          <a:ext cx="1953914" cy="332537"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="roundRect">
           <a:avLst/>
@@ -1294,12 +1294,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11617</cdr:x>
-      <cdr:y>0.37716</cdr:y>
+      <cdr:x>0.36732</cdr:x>
+      <cdr:y>0.19586</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.30186</cdr:x>
-      <cdr:y>0.43459</cdr:y>
+      <cdr:x>0.55301</cdr:x>
+      <cdr:y>0.25329</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1308,8 +1308,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1135139" y="2540951"/>
-          <a:ext cx="1814453" cy="386843"/>
+          <a:off x="3589247" y="1319477"/>
+          <a:ext cx="1814475" cy="386904"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="roundRect">
           <a:avLst/>
@@ -1744,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,10 +2040,10 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="46" t="s">
         <v>22</v>
       </c>
@@ -2127,21 +2127,21 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>1</v>
       </c>
-      <c r="E21" s="56" t="str">
+      <c r="E21" s="54" t="str">
         <f>A8</f>
         <v>Oliver Streuli</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="55" t="s">
         <v>38</v>
       </c>
       <c r="G21"/>
@@ -2351,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F4" s="10"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="56" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f>C5-D5</f>
         <v>16</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="I5" s="52">
+      <c r="I5" s="50">
         <f>C5</f>
         <v>16</v>
       </c>
@@ -2446,357 +2446,357 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <f>Iterationsplan!$G$10</f>
+        <f>E5</f>
         <v>16</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f t="shared" ref="E6:E19" si="0">C6-D6</f>
         <v>16</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="I6" s="52">
-        <f>I5-TEAM_CAPACITY/$B$19</f>
+      <c r="I6" s="50">
+        <f t="shared" ref="I6:I19" si="1">I5-TEAM_CAPACITY/$B$19</f>
         <v>14.857142857142858</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A19" si="1">A6+1</f>
+        <f t="shared" ref="A7:A19" si="2">A6+1</f>
         <v>41223</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:B19" si="2">B6+1</f>
+        <f t="shared" ref="B7:B19" si="3">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <f>Iterationsplan!$G$10</f>
+        <f t="shared" ref="C7:C20" si="4">E6</f>
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="51">
+        <v>3</v>
+      </c>
+      <c r="E7" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="I7" s="52">
-        <f>I6-TEAM_CAPACITY/$B$19</f>
+      <c r="I7" s="50">
+        <f t="shared" si="1"/>
         <v>13.714285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <f t="shared" si="2"/>
+        <v>41224</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="I8" s="50">
         <f t="shared" si="1"/>
-        <v>41224</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="51">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="I8" s="52">
-        <f>I7-TEAM_CAPACITY/$B$19</f>
         <v>12.571428571428573</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41225</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C9" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="52">
-        <f>I8-TEAM_CAPACITY/$B$19</f>
+      <c r="I9" s="50">
+        <f t="shared" si="1"/>
         <v>11.428571428571431</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41226</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C10" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="52">
-        <f>I9-TEAM_CAPACITY/$B$19</f>
+      <c r="I10" s="50">
+        <f t="shared" si="1"/>
         <v>10.285714285714288</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41227</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C11" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="I11" s="52">
-        <f>I10-TEAM_CAPACITY/$B$19</f>
+      <c r="I11" s="50">
+        <f t="shared" si="1"/>
         <v>9.1428571428571459</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <f t="shared" si="2"/>
+        <v>41228</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="I12" s="50">
         <f t="shared" si="1"/>
-        <v>41228</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="51">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="I12" s="52">
-        <f>I11-TEAM_CAPACITY/$B$19</f>
         <v>8.0000000000000036</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
+        <f t="shared" si="2"/>
+        <v>41229</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="I13" s="50">
         <f t="shared" si="1"/>
-        <v>41229</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="51">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="I13" s="52">
-        <f>I12-TEAM_CAPACITY/$B$19</f>
         <v>6.8571428571428612</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
+        <f t="shared" si="2"/>
+        <v>41230</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="I14" s="50">
         <f t="shared" si="1"/>
-        <v>41230</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="51">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="I14" s="52">
-        <f>I13-TEAM_CAPACITY/$B$19</f>
         <v>5.7142857142857189</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41231</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C15" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="I15" s="52">
-        <f>I14-TEAM_CAPACITY/$B$19</f>
+      <c r="I15" s="50">
+        <f t="shared" si="1"/>
         <v>4.5714285714285765</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <f t="shared" si="2"/>
+        <v>41232</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="I16" s="50">
         <f t="shared" si="1"/>
-        <v>41232</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C16" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="51">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="I16" s="52">
-        <f>I15-TEAM_CAPACITY/$B$19</f>
         <v>3.4285714285714337</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41233</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="I17" s="52">
-        <f>I16-TEAM_CAPACITY/$B$19</f>
+      <c r="I17" s="50">
+        <f t="shared" si="1"/>
         <v>2.2857142857142909</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41234</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="I18" s="52">
-        <f>I17-TEAM_CAPACITY/$B$19</f>
+      <c r="I18" s="50">
+        <f t="shared" si="1"/>
         <v>1.1428571428571481</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41235</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="I19" s="52">
-        <f>I18-TEAM_CAPACITY/$B$19</f>
+      <c r="I19" s="50">
+        <f t="shared" si="1"/>
         <v>5.3290705182007514E-15</v>
       </c>
     </row>
@@ -2809,15 +2809,15 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <f>Iterationsplan!$G$10</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>

--- a/prjplanning/Iteration1.xlsx
+++ b/prjplanning/Iteration1.xlsx
@@ -949,11 +949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93349376"/>
-        <c:axId val="93350912"/>
+        <c:axId val="94660480"/>
+        <c:axId val="94662016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93349376"/>
+        <c:axId val="94660480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +973,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93350912"/>
+        <c:crossAx val="94662016"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="0"/>
@@ -984,7 +984,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93350912"/>
+        <c:axId val="94662016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1016,7 +1016,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93349376"/>
+        <c:crossAx val="94660480"/>
         <c:crossesAt val="41221"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1744,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
